--- a/biology/Zoologie/Brianina/Brianina.xlsx
+++ b/biology/Zoologie/Brianina/Brianina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brianina est un genre d'insectes diptères nématocères de la famille des Blephariceridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 novembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 novembre 2018) :
 Brianina longitbialis Zhang &amp; Lukashevich, 2007</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Brianina a été nommé en l'honneur de l'entomologiste sud-africain Brian Roy Stuckenberg (en)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Brianina a été nommé en l'honneur de l'entomologiste sud-africain Brian Roy Stuckenberg (en).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Zhang &amp; Lukashevich, 2007 : The oldest known net-winged midges (Insecta: Diptera: Blephariceridae) from the late Mesozoic of northeast China. Cretaceous Research, vol. 28, p. 302-309 (texte intégral) (en).</t>
         </is>
